--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,26 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Projects\CMU\18-668 Data Science\IndividualProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B87756C-A183-4938-ABAD-917590B496A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Gens</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RandomizedSearchCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+n-iter = 100
+scoring = accuracy &amp; f1
+refit = f1
+cv = 10
+verbose = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GridSearchCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+scoring = f1
+cv = 10</t>
+    </r>
+  </si>
+  <si>
+    <t>T_0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +151,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +193,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +488,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.79059999999999997</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="T2">
+        <v>198.78</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.3584</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="T3">
+        <v>219.33</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.3856</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="T4" s="7">
+        <v>281.68</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.38990000000000002</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="I5">
+        <v>35.89</v>
+      </c>
+      <c r="J5">
+        <v>3039</v>
+      </c>
+      <c r="K5">
+        <v>223032</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.3503</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="T5" s="7">
+        <v>263.47000000000003</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="I6">
+        <v>94.34</v>
+      </c>
+      <c r="J6">
+        <v>8889</v>
+      </c>
+      <c r="K6">
+        <v>204302</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.3478</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.3543</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="T6" s="7">
+        <v>242.19</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="T7" s="9">
+        <v>21.51</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.7994</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.3881</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="T8">
+        <v>12.41</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.62460000000000004</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="T9">
+        <v>8.82</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.44629999999999997</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="T10" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0.61219999999999997</v>
+      </c>
+      <c r="T11" s="7">
+        <v>8.65</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V2:X6"/>
+    <mergeCell ref="V7:X12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordan\Projects\CMU\18-668 Data Science\IndividualProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B87756C-A183-4938-ABAD-917590B496A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C09D5-D68F-425B-9DC3-235C48EFCB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SVC" sheetId="1" r:id="rId1"/>
+    <sheet name="DT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="24">
   <si>
     <t>Schedule</t>
   </si>
@@ -111,6 +112,9 @@
     </r>
   </si>
   <si>
+    <t>T_0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -131,19 +135,62 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-scoring = f1
+scoring = accuracy &amp; f1
+refit = f1
 cv = 10</t>
     </r>
   </si>
   <si>
-    <t>T_0</t>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>cost: Δf1</t>
+  </si>
+  <si>
+    <t>Geo</t>
+  </si>
+  <si>
+    <t>cost: Δf1 + Δacc</t>
+  </si>
+  <si>
+    <t>Cost Calculation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GridSearchCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+scoring = accuracy &amp; f1
+refit = f1
+cv = 10
+smaller param grid</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +213,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -181,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,26 +248,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,150 +645,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="21">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="F2" s="52">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="G2" s="52">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="I2" s="23">
+        <v>226.38</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1776</v>
+      </c>
+      <c r="K2" s="6">
+        <v>224322</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.79059999999999997</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="T2" s="21">
+        <v>198.78</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0.31835999999999998</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="N2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0.79059999999999997</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.36270000000000002</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0.36909999999999998</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0.36919999999999997</v>
-      </c>
-      <c r="T2">
-        <v>198.78</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="21">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
         <v>0.31835999999999998</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="N3" t="s">
+      <c r="E3" s="52">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="F3" s="52">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="G3" s="52">
+        <v>0.4249</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="I3" s="22">
+        <v>338.23</v>
+      </c>
+      <c r="J3" s="21">
+        <v>2209</v>
+      </c>
+      <c r="K3" s="21">
+        <v>230102</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="N3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="O3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4">
         <v>0.79530000000000001</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.3584</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>0.37680000000000002</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>0.35170000000000001</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="21">
         <v>219.33</v>
       </c>
       <c r="V3" s="2"/>
@@ -640,41 +841,59 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="24">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25">
         <v>0.31835999999999998</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="N4" t="s">
+      <c r="E4" s="54">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="H4" s="54">
+        <v>0.7823</v>
+      </c>
+      <c r="I4" s="26">
+        <v>298.02999999999997</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1772</v>
+      </c>
+      <c r="K4" s="10">
+        <v>204002</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="N4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="O4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="8">
         <v>0.79769999999999996</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="8">
         <v>0.36830000000000002</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="8">
         <v>0.3856</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="8">
         <v>0.36349999999999999</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="10">
         <v>281.68</v>
       </c>
       <c r="V4" s="2"/>
@@ -682,58 +901,59 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22">
         <v>0.31835999999999998</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.72370000000000001</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.46910000000000002</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.38990000000000002</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.72840000000000005</v>
-      </c>
-      <c r="I5">
-        <v>35.89</v>
-      </c>
-      <c r="J5">
-        <v>3039</v>
-      </c>
-      <c r="K5">
-        <v>223032</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="E5" s="52">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="I5" s="23">
+        <v>445.06</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3711</v>
+      </c>
+      <c r="K5" s="6">
+        <v>234112</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="N5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="O5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4">
         <v>0.78559999999999997</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>0.3503</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>0.35759999999999997</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>0.35370000000000001</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>263.47000000000003</v>
       </c>
       <c r="V5" s="2"/>
@@ -741,43 +961,44 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.31835999999999998</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.51559999999999995</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.40720000000000001</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.78310000000000002</v>
-      </c>
-      <c r="I6">
-        <v>94.34</v>
-      </c>
-      <c r="J6">
-        <v>8889</v>
-      </c>
-      <c r="K6">
-        <v>204302</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="B6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="27">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="I6" s="29">
+        <v>527.27</v>
+      </c>
+      <c r="J6" s="30">
+        <v>2863</v>
+      </c>
+      <c r="K6" s="30">
+        <v>224212</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="N6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="5">
@@ -792,7 +1013,7 @@
       <c r="S6" s="5">
         <v>0.35120000000000001</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="30">
         <v>242.19</v>
       </c>
       <c r="V6" s="2"/>
@@ -800,25 +1021,61 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N7" s="9" t="s">
+      <c r="A7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="31">
+        <v>5</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="F7" s="58">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="G7" s="58">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="H7" s="58">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="I7" s="33">
+        <v>37.36</v>
+      </c>
+      <c r="J7" s="34">
+        <v>301</v>
+      </c>
+      <c r="K7" s="34">
+        <v>224022</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="10">
+      <c r="O7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="38">
         <v>0.67259999999999998</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="38">
         <v>0.47689999999999999</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="38">
         <v>0.33410000000000001</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="38">
         <v>0.88980000000000004</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="35">
         <v>21.51</v>
       </c>
       <c r="V7" s="3" t="s">
@@ -828,25 +1085,59 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N8" t="s">
+      <c r="A8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E8" s="54">
+        <v>0.7419</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0.3871</v>
+      </c>
+      <c r="H8" s="54">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="I8" s="26">
+        <v>40.65</v>
+      </c>
+      <c r="J8" s="10">
+        <v>328</v>
+      </c>
+      <c r="K8" s="10">
+        <v>224232</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="N8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="O8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="4">
         <v>0.7994</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>0.37169999999999997</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>0.3881</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>0.36659999999999998</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="21">
         <v>12.41</v>
       </c>
       <c r="V8" s="3"/>
@@ -854,25 +1145,59 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N9" t="s">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="21">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="I9" s="23">
+        <v>119.13</v>
+      </c>
+      <c r="J9" s="6">
+        <v>907</v>
+      </c>
+      <c r="K9" s="6">
+        <v>224312</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="N9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4">
         <v>0.62460000000000004</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>0.38059999999999999</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>0.27739999999999998</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>0.68389999999999995</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="21">
         <v>8.82</v>
       </c>
       <c r="V9" s="3"/>
@@ -880,25 +1205,59 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N10" t="s">
+      <c r="A10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="I10" s="23">
+        <v>132.82</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1256</v>
+      </c>
+      <c r="K10" s="6">
+        <v>224202</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="N10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="O10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="4">
         <v>0.63470000000000004</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>0.44629999999999997</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>0.30559999999999998</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>0.86990000000000001</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>18.399999999999999</v>
       </c>
       <c r="V10" s="3"/>
@@ -906,25 +1265,59 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N11" t="s">
+      <c r="A11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E11" s="57">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="G11" s="57">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="H11" s="57">
+        <v>0.7702</v>
+      </c>
+      <c r="I11" s="29">
+        <v>229.89</v>
+      </c>
+      <c r="J11" s="30">
+        <v>2135</v>
+      </c>
+      <c r="K11" s="30">
+        <v>224222</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="N11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="5">
         <v>0.59040000000000004</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <v>0.34150000000000003</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="5">
         <v>0.24349999999999999</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="5">
         <v>0.61219999999999997</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="30">
         <v>8.65</v>
       </c>
       <c r="V11" s="3"/>
@@ -932,16 +1325,1046 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="35">
+        <v>5</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0.38629999999999998</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="I12" s="36">
+        <v>51.06</v>
+      </c>
+      <c r="J12" s="35">
+        <v>194</v>
+      </c>
+      <c r="K12" s="35">
+        <v>204102</v>
+      </c>
+      <c r="L12" s="41"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.36890000000000001</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="I13" s="22">
+        <v>105.55</v>
+      </c>
+      <c r="J13" s="21">
+        <v>845</v>
+      </c>
+      <c r="K13" s="21">
+        <v>221022</v>
+      </c>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="21">
+        <v>5</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="F14" s="52">
+        <v>0.4622</v>
+      </c>
+      <c r="G14" s="52">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="H14" s="52">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="I14" s="23">
+        <v>24.37</v>
+      </c>
+      <c r="J14" s="6">
+        <v>126</v>
+      </c>
+      <c r="K14" s="6">
+        <v>202202</v>
+      </c>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="21">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.71740000000000004</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0.46029999999999999</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0.36820000000000003</v>
+      </c>
+      <c r="H15" s="52">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="I15" s="23">
+        <v>22.41</v>
+      </c>
+      <c r="J15" s="6">
+        <v>189</v>
+      </c>
+      <c r="K15" s="6">
+        <v>163322</v>
+      </c>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="27">
+        <v>5</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0.3856</v>
+      </c>
+      <c r="H16" s="57">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="I16" s="29">
+        <v>97.29</v>
+      </c>
+      <c r="J16" s="27">
+        <v>954</v>
+      </c>
+      <c r="K16" s="30">
+        <v>214312</v>
+      </c>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="31">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32">
+        <v>2.1541800000000002</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.4632</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="I17" s="32">
+        <v>36.64</v>
+      </c>
+      <c r="J17" s="31">
+        <v>380</v>
+      </c>
+      <c r="K17" s="31">
+        <v>220200</v>
+      </c>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="24">
+        <v>5</v>
+      </c>
+      <c r="D18" s="25">
+        <v>2.1541800000000002</v>
+      </c>
+      <c r="E18" s="54">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="F18" s="54">
+        <v>0.46289999999999998</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="I18" s="25">
+        <v>39.74</v>
+      </c>
+      <c r="J18" s="25">
+        <v>380</v>
+      </c>
+      <c r="K18" s="25">
+        <v>212232</v>
+      </c>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="21">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22">
+        <v>2.1541800000000002</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="G19" s="52">
+        <v>0.371</v>
+      </c>
+      <c r="H19" s="52">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="I19" s="22">
+        <v>45.83</v>
+      </c>
+      <c r="J19" s="22">
+        <v>380</v>
+      </c>
+      <c r="K19" s="22">
+        <v>202332</v>
+      </c>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="21">
+        <v>5</v>
+      </c>
+      <c r="D20" s="22">
+        <v>2.1541800000000002</v>
+      </c>
+      <c r="E20" s="52">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="F20" s="52">
+        <v>0.45810000000000001</v>
+      </c>
+      <c r="G20" s="52">
+        <v>0.374</v>
+      </c>
+      <c r="H20" s="52">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="I20" s="22">
+        <v>98.78</v>
+      </c>
+      <c r="J20" s="22">
+        <v>380</v>
+      </c>
+      <c r="K20" s="22">
+        <v>113132</v>
+      </c>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5</v>
+      </c>
+      <c r="D21" s="28">
+        <v>2.1541800000000002</v>
+      </c>
+      <c r="E21" s="57">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="F21" s="57">
+        <v>0.4607</v>
+      </c>
+      <c r="G21" s="57">
+        <v>0.371</v>
+      </c>
+      <c r="H21" s="57">
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="I21" s="28">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="J21" s="28">
+        <v>380</v>
+      </c>
+      <c r="K21" s="28">
+        <v>160020</v>
+      </c>
+      <c r="L21" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
+  <mergeCells count="4">
     <mergeCell ref="V2:X6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L21"/>
     <mergeCell ref="V7:X12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7703452-9B21-4818-9FF9-65787856C630}">
+  <dimension ref="A1:X23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.31835999999999998</v>
+      </c>
+      <c r="E2" s="49">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="F2" s="49">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="G2" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="H2" s="49">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="I2" s="12">
+        <v>72.25</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1229</v>
+      </c>
+      <c r="K2" s="12">
+        <v>200030</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="52">
+        <v>0.8054</v>
+      </c>
+      <c r="Q2" s="52">
+        <v>0.40860000000000002</v>
+      </c>
+      <c r="R2" s="52">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="S2" s="52">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="T2" s="6">
+        <v>26.58</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0.3528</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0.5484</v>
+      </c>
+      <c r="I3" s="14">
+        <v>130.12</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1818</v>
+      </c>
+      <c r="K3" s="18">
+        <v>100040</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="R3" s="52">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="S3" s="52">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="T3" s="6">
+        <v>26.11</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0.3513</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I4" s="17">
+        <v>20.46</v>
+      </c>
+      <c r="J4" s="20">
+        <v>395</v>
+      </c>
+      <c r="K4" s="20">
+        <v>200040</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="R4" s="53">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="S4" s="53">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="T4" s="19">
+        <v>28.06</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.17433999999999999</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="I5" s="17">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="J5" s="20">
+        <v>832</v>
+      </c>
+      <c r="K5" s="20">
+        <v>100020</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="N5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="54">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="R5" s="54">
+        <v>0.4002</v>
+      </c>
+      <c r="S5" s="54">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="T5" s="10">
+        <v>19.12</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="9"/>
+      <c r="N6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="55">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="R6" s="55">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="S6" s="55">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="T6" s="46">
+        <v>20.72</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="53">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="Q7" s="53">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="R7" s="53">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="S7" s="53">
+        <v>0.42780000000000001</v>
+      </c>
+      <c r="T7" s="44">
+        <v>3.19</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="52">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="R8" s="52">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="S8" s="52">
+        <v>0.28070000000000001</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="52">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="Q9" s="52">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="R9" s="52">
+        <v>0.41</v>
+      </c>
+      <c r="S9" s="52">
+        <v>0.41020000000000001</v>
+      </c>
+      <c r="T9" s="21">
+        <v>2.89</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="N10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="52">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="Q10" s="52">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="R10" s="52">
+        <v>0.3382</v>
+      </c>
+      <c r="S10" s="52">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="T10" s="6">
+        <v>2.58</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="N11" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="R11" s="56">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="S11" s="56">
+        <v>0.44280000000000003</v>
+      </c>
+      <c r="T11" s="48">
+        <v>2.37</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="20"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="11"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="V2:X6"/>
+    <mergeCell ref="V7:X12"/>
+    <mergeCell ref="L3:L5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>